--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.444897</v>
+        <v>0.556553</v>
       </c>
       <c r="H2">
-        <v>1.334691</v>
+        <v>1.669659</v>
       </c>
       <c r="I2">
-        <v>0.003428316267562725</v>
+        <v>0.004323723095587726</v>
       </c>
       <c r="J2">
-        <v>0.003431137301534091</v>
+        <v>0.004326971178458586</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>9.380635004223</v>
+        <v>8.983171332654667</v>
       </c>
       <c r="R2">
-        <v>84.425715038007</v>
+        <v>80.848541993892</v>
       </c>
       <c r="S2">
-        <v>0.0001159223674017733</v>
+        <v>0.0001480031171632779</v>
       </c>
       <c r="T2">
-        <v>0.0001204028101079946</v>
+        <v>0.0001572797067469541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.444897</v>
+        <v>0.556553</v>
       </c>
       <c r="H3">
-        <v>1.334691</v>
+        <v>1.669659</v>
       </c>
       <c r="I3">
-        <v>0.003428316267562725</v>
+        <v>0.004323723095587726</v>
       </c>
       <c r="J3">
-        <v>0.003431137301534091</v>
+        <v>0.004326971178458586</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>36.064826246751</v>
+        <v>45.11603189526566</v>
       </c>
       <c r="R3">
-        <v>324.583436220759</v>
+        <v>406.044287057391</v>
       </c>
       <c r="S3">
-        <v>0.0004456755898267972</v>
+        <v>0.0007433135924130187</v>
       </c>
       <c r="T3">
-        <v>0.0004629011174841095</v>
+        <v>0.0007899032539076242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.444897</v>
+        <v>0.556553</v>
       </c>
       <c r="H4">
-        <v>1.334691</v>
+        <v>1.669659</v>
       </c>
       <c r="I4">
-        <v>0.003428316267562725</v>
+        <v>0.004323723095587726</v>
       </c>
       <c r="J4">
-        <v>0.003431137301534091</v>
+        <v>0.004326971178458586</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>60.950629921647</v>
+        <v>93.89255591163</v>
       </c>
       <c r="R4">
-        <v>548.555669294823</v>
+        <v>845.0330032046699</v>
       </c>
       <c r="S4">
-        <v>0.0007532050135162381</v>
+        <v>0.001546935980485412</v>
       </c>
       <c r="T4">
-        <v>0.0007823166680203414</v>
+        <v>0.001643895358627114</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.444897</v>
+        <v>0.556553</v>
       </c>
       <c r="H5">
-        <v>1.334691</v>
+        <v>1.669659</v>
       </c>
       <c r="I5">
-        <v>0.003428316267562725</v>
+        <v>0.004323723095587726</v>
       </c>
       <c r="J5">
-        <v>0.003431137301534091</v>
+        <v>0.004326971178458586</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>30.31136559660601</v>
+        <v>45.8793199391925</v>
       </c>
       <c r="R5">
-        <v>181.868193579636</v>
+        <v>275.275919635155</v>
       </c>
       <c r="S5">
-        <v>0.0003745764820353202</v>
+        <v>0.0007558892191723548</v>
       </c>
       <c r="T5">
-        <v>0.0002593693351178024</v>
+        <v>0.000535511400044619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.444897</v>
+        <v>0.556553</v>
       </c>
       <c r="H6">
-        <v>1.334691</v>
+        <v>1.669659</v>
       </c>
       <c r="I6">
-        <v>0.003428316267562725</v>
+        <v>0.004323723095587726</v>
       </c>
       <c r="J6">
-        <v>0.003431137301534091</v>
+        <v>0.004326971178458586</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>140.717722735467</v>
+        <v>68.56086226862233</v>
       </c>
       <c r="R6">
-        <v>1266.459504619203</v>
+        <v>617.0477604176009</v>
       </c>
       <c r="S6">
-        <v>0.001738936814782597</v>
+        <v>0.001129581186353662</v>
       </c>
       <c r="T6">
-        <v>0.001806147370803843</v>
+        <v>0.001200381459132275</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>381.333695</v>
       </c>
       <c r="I7">
-        <v>0.9795020045376064</v>
+        <v>0.9874958325007117</v>
       </c>
       <c r="J7">
-        <v>0.980308000313424</v>
+        <v>0.9882376626844865</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>2680.135108131168</v>
+        <v>2051.667985558296</v>
       </c>
       <c r="R7">
-        <v>24121.21597318051</v>
+        <v>18465.01187002466</v>
       </c>
       <c r="S7">
-        <v>0.03312010397497679</v>
+        <v>0.03380245639342565</v>
       </c>
       <c r="T7">
-        <v>0.03440020833800853</v>
+        <v>0.03592113822183597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>381.333695</v>
       </c>
       <c r="I8">
-        <v>0.9795020045376064</v>
+        <v>0.9874958325007117</v>
       </c>
       <c r="J8">
-        <v>0.980308000313424</v>
+        <v>0.9882376626844865</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
         <v>10304.05798211462</v>
@@ -948,10 +948,10 @@
         <v>92736.52183903156</v>
       </c>
       <c r="S8">
-        <v>0.1273336820582119</v>
+        <v>0.1697655142388838</v>
       </c>
       <c r="T8">
-        <v>0.1322551763290863</v>
+        <v>0.1804061347287785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>381.333695</v>
       </c>
       <c r="I9">
-        <v>0.9795020045376064</v>
+        <v>0.9874958325007117</v>
       </c>
       <c r="J9">
-        <v>0.980308000313424</v>
+        <v>0.9882376626844865</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>17414.16471722609</v>
+        <v>21444.13636483615</v>
       </c>
       <c r="R9">
-        <v>156727.4824550348</v>
+        <v>192997.2272835253</v>
       </c>
       <c r="S9">
-        <v>0.2151977131011387</v>
+        <v>0.3533049642872886</v>
       </c>
       <c r="T9">
-        <v>0.2235151849201689</v>
+        <v>0.3754495326881881</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>381.333695</v>
       </c>
       <c r="I10">
-        <v>0.9795020045376064</v>
+        <v>0.9874958325007117</v>
       </c>
       <c r="J10">
-        <v>0.980308000313424</v>
+        <v>0.9882376626844865</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>8660.240492705538</v>
+        <v>10478.38546463646</v>
       </c>
       <c r="R10">
-        <v>51961.44295623322</v>
+        <v>62870.31278781878</v>
       </c>
       <c r="S10">
-        <v>0.1070200023485809</v>
+        <v>0.1726376637131647</v>
       </c>
       <c r="T10">
-        <v>0.07410424355162719</v>
+        <v>0.1223055371747391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>381.333695</v>
       </c>
       <c r="I11">
-        <v>0.9795020045376064</v>
+        <v>0.9874958325007117</v>
       </c>
       <c r="J11">
-        <v>0.980308000313424</v>
+        <v>0.9882376626844865</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>40204.3687735222</v>
+        <v>15658.62666645095</v>
       </c>
       <c r="R11">
-        <v>361839.3189616999</v>
+        <v>140927.6399980586</v>
       </c>
       <c r="S11">
-        <v>0.4968305030546981</v>
+        <v>0.2579852338679489</v>
       </c>
       <c r="T11">
-        <v>0.5160331871745329</v>
+        <v>0.2741553198709448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.6990286666666666</v>
+        <v>0.198887</v>
       </c>
       <c r="H12">
-        <v>2.097086</v>
+        <v>0.596661</v>
       </c>
       <c r="I12">
-        <v>0.005386620609772633</v>
+        <v>0.001545104087682855</v>
       </c>
       <c r="J12">
-        <v>0.005391053059565788</v>
+        <v>0.001546264806352841</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>14.73899077649133</v>
+        <v>3.210181234918668</v>
       </c>
       <c r="R12">
-        <v>132.650916988422</v>
+        <v>28.891631114268</v>
       </c>
       <c r="S12">
-        <v>0.0001821389173712231</v>
+        <v>5.28896546479003E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001891786544137437</v>
+        <v>5.62046903633283E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.6990286666666666</v>
+        <v>0.198887</v>
       </c>
       <c r="H13">
-        <v>2.097086</v>
+        <v>0.596661</v>
       </c>
       <c r="I13">
-        <v>0.005386620609772633</v>
+        <v>0.001545104087682855</v>
       </c>
       <c r="J13">
-        <v>0.005391053059565788</v>
+        <v>0.001546264806352841</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>56.66558193206822</v>
+        <v>16.12243979558767</v>
       </c>
       <c r="R13">
-        <v>509.990237388614</v>
+        <v>145.101958160289</v>
       </c>
       <c r="S13">
-        <v>0.0007002519983782903</v>
+        <v>0.0002656268324027507</v>
       </c>
       <c r="T13">
-        <v>0.0007273169991108663</v>
+        <v>0.0002822758811109196</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.6990286666666666</v>
+        <v>0.198887</v>
       </c>
       <c r="H14">
-        <v>2.097086</v>
+        <v>0.596661</v>
       </c>
       <c r="I14">
-        <v>0.005386620609772633</v>
+        <v>0.001545104087682855</v>
       </c>
       <c r="J14">
-        <v>0.005391053059565788</v>
+        <v>0.001546264806352841</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>95.76652026563977</v>
+        <v>33.55297477077</v>
       </c>
       <c r="R14">
-        <v>861.8986823907579</v>
+        <v>301.97677293693</v>
       </c>
       <c r="S14">
-        <v>0.00118344672210625</v>
+        <v>0.0005528053147693072</v>
       </c>
       <c r="T14">
-        <v>0.001229187379005407</v>
+        <v>0.0005874542338128999</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.6990286666666666</v>
+        <v>0.198887</v>
       </c>
       <c r="H15">
-        <v>2.097086</v>
+        <v>0.596661</v>
       </c>
       <c r="I15">
-        <v>0.005386620609772633</v>
+        <v>0.001545104087682855</v>
       </c>
       <c r="J15">
-        <v>0.005391053059565788</v>
+        <v>0.001546264806352841</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>47.62566049634268</v>
+        <v>16.3952045982075</v>
       </c>
       <c r="R15">
-        <v>285.7539629780561</v>
+        <v>98.37122758924501</v>
       </c>
       <c r="S15">
-        <v>0.0005885400414069785</v>
+        <v>0.0002701207955640023</v>
       </c>
       <c r="T15">
-        <v>0.0004075248889105056</v>
+        <v>0.0001913676789464331</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.6990286666666666</v>
+        <v>0.198887</v>
       </c>
       <c r="H16">
-        <v>2.097086</v>
+        <v>0.596661</v>
       </c>
       <c r="I16">
-        <v>0.005386620609772633</v>
+        <v>0.001545104087682855</v>
       </c>
       <c r="J16">
-        <v>0.005391053059565788</v>
+        <v>0.001546264806352841</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N16">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O16">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P16">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q16">
-        <v>221.097741949582</v>
+        <v>24.50056726676434</v>
       </c>
       <c r="R16">
-        <v>1989.879677546238</v>
+        <v>220.505105400879</v>
       </c>
       <c r="S16">
-        <v>0.00273224293050989</v>
+        <v>0.0004036614902988949</v>
       </c>
       <c r="T16">
-        <v>0.002837845138125265</v>
+        <v>0.0004289623221192604</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3200885</v>
+        <v>0.2898765</v>
       </c>
       <c r="H17">
-        <v>0.640177</v>
+        <v>0.579753</v>
       </c>
       <c r="I17">
-        <v>0.002466558802621172</v>
+        <v>0.00225197908899626</v>
       </c>
       <c r="J17">
-        <v>0.001645725628092337</v>
+        <v>0.001502447219237521</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N17">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O17">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P17">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q17">
-        <v>6.749052898871499</v>
+        <v>4.678818126594001</v>
       </c>
       <c r="R17">
-        <v>40.494317393229</v>
+        <v>28.072908759564</v>
       </c>
       <c r="S17">
-        <v>8.340226321616578E-05</v>
+        <v>7.708632527788175E-05</v>
       </c>
       <c r="T17">
-        <v>5.77505278498961E-05</v>
+        <v>5.461197874875461E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3200885</v>
+        <v>0.2898765</v>
       </c>
       <c r="H18">
-        <v>0.640177</v>
+        <v>0.579753</v>
       </c>
       <c r="I18">
-        <v>0.002466558802621172</v>
+        <v>0.00225197908899626</v>
       </c>
       <c r="J18">
-        <v>0.001645725628092337</v>
+        <v>0.001502447219237521</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P18">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q18">
-        <v>25.94743533016216</v>
+        <v>23.4983504170995</v>
       </c>
       <c r="R18">
-        <v>155.684611980973</v>
+        <v>140.990102502597</v>
       </c>
       <c r="S18">
-        <v>0.0003206486693195836</v>
+        <v>0.0003871493686515254</v>
       </c>
       <c r="T18">
-        <v>0.0002220279065998233</v>
+        <v>0.0002742768320733197</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3200885</v>
+        <v>0.2898765</v>
       </c>
       <c r="H19">
-        <v>0.640177</v>
+        <v>0.579753</v>
       </c>
       <c r="I19">
-        <v>0.002466558802621172</v>
+        <v>0.00225197908899626</v>
       </c>
       <c r="J19">
-        <v>0.001645725628092337</v>
+        <v>0.001502447219237521</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N19">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O19">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P19">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q19">
-        <v>43.85193810179683</v>
+        <v>48.903240991815</v>
       </c>
       <c r="R19">
-        <v>263.111628610781</v>
+        <v>293.41944595089</v>
       </c>
       <c r="S19">
-        <v>0.0005419057961031258</v>
+        <v>0.0008057101259847302</v>
       </c>
       <c r="T19">
-        <v>0.0003752337713997158</v>
+        <v>0.0005708071323846038</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3200885</v>
+        <v>0.2898765</v>
       </c>
       <c r="H20">
-        <v>0.640177</v>
+        <v>0.579753</v>
       </c>
       <c r="I20">
-        <v>0.002466558802621172</v>
+        <v>0.00225197908899626</v>
       </c>
       <c r="J20">
-        <v>0.001645725628092337</v>
+        <v>0.001502447219237521</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N20">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O20">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P20">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q20">
-        <v>21.808012971023</v>
+        <v>23.89590333059625</v>
       </c>
       <c r="R20">
-        <v>87.23205188409202</v>
+        <v>95.58361332238501</v>
       </c>
       <c r="S20">
-        <v>0.000269495241078188</v>
+        <v>0.0003936992905283326</v>
       </c>
       <c r="T20">
-        <v>0.000124405036707155</v>
+        <v>0.0001859447592053635</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3200885</v>
+        <v>0.2898765</v>
       </c>
       <c r="H21">
-        <v>0.640177</v>
+        <v>0.579753</v>
       </c>
       <c r="I21">
-        <v>0.002466558802621172</v>
+        <v>0.00225197908899626</v>
       </c>
       <c r="J21">
-        <v>0.001645725628092337</v>
+        <v>0.001502447219237521</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N21">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O21">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P21">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q21">
-        <v>101.2416914337735</v>
+        <v>35.7094163384445</v>
       </c>
       <c r="R21">
-        <v>607.450148602641</v>
+        <v>214.256498030667</v>
       </c>
       <c r="S21">
-        <v>0.001251106832904108</v>
+        <v>0.0005883339785537898</v>
       </c>
       <c r="T21">
-        <v>0.0008663083855357472</v>
+        <v>0.0004168065168254797</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.196037</v>
+        <v>0.5642296666666667</v>
       </c>
       <c r="H22">
-        <v>3.588111</v>
+        <v>1.692689</v>
       </c>
       <c r="I22">
-        <v>0.009216499782437099</v>
+        <v>0.004383361227021382</v>
       </c>
       <c r="J22">
-        <v>0.00922408369738373</v>
+        <v>0.004386654111464609</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N22">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O22">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P22">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q22">
-        <v>25.21839110748299</v>
+        <v>9.107078331503558</v>
       </c>
       <c r="R22">
-        <v>226.9655199673469</v>
+        <v>81.96370498353201</v>
       </c>
       <c r="S22">
-        <v>0.000311639414381564</v>
+        <v>0.0001500445590315099</v>
       </c>
       <c r="T22">
-        <v>0.0003236843939004658</v>
+        <v>0.0001594491028011079</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.196037</v>
+        <v>0.5642296666666667</v>
       </c>
       <c r="H23">
-        <v>3.588111</v>
+        <v>1.692689</v>
       </c>
       <c r="I23">
-        <v>0.009216499782437099</v>
+        <v>0.004383361227021382</v>
       </c>
       <c r="J23">
-        <v>0.00922408369738373</v>
+        <v>0.004386654111464609</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P23">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q23">
-        <v>96.95472567737099</v>
+        <v>45.73832795365123</v>
       </c>
       <c r="R23">
-        <v>872.5925310963389</v>
+        <v>411.644951582861</v>
       </c>
       <c r="S23">
-        <v>0.001198130118723374</v>
+        <v>0.000753566291936258</v>
       </c>
       <c r="T23">
-        <v>0.001244438294374522</v>
+        <v>0.0008007985756095363</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.196037</v>
+        <v>0.5642296666666667</v>
       </c>
       <c r="H24">
-        <v>3.588111</v>
+        <v>1.692689</v>
       </c>
       <c r="I24">
-        <v>0.009216499782437099</v>
+        <v>0.004383361227021382</v>
       </c>
       <c r="J24">
-        <v>0.00922408369738373</v>
+        <v>0.004386654111464609</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N24">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O24">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P24">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q24">
-        <v>163.856372507787</v>
+        <v>95.18763805873002</v>
       </c>
       <c r="R24">
-        <v>1474.707352570083</v>
+        <v>856.6887425285701</v>
       </c>
       <c r="S24">
-        <v>0.002024875566144345</v>
+        <v>0.001568273232960666</v>
       </c>
       <c r="T24">
-        <v>0.002103137761479724</v>
+        <v>0.001666569994651106</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.196037</v>
+        <v>0.5642296666666667</v>
       </c>
       <c r="H25">
-        <v>3.588111</v>
+        <v>1.692689</v>
       </c>
       <c r="I25">
-        <v>0.009216499782437099</v>
+        <v>0.004383361227021382</v>
       </c>
       <c r="J25">
-        <v>0.00922408369738373</v>
+        <v>0.004386654111464609</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N25">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O25">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P25">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q25">
-        <v>81.487433662326</v>
+        <v>46.51214420941751</v>
       </c>
       <c r="R25">
-        <v>488.924601973956</v>
+        <v>279.0728652565051</v>
       </c>
       <c r="S25">
-        <v>0.001006991127933158</v>
+        <v>0.0007663153772786147</v>
       </c>
       <c r="T25">
-        <v>0.0006972744735664455</v>
+        <v>0.0005428978349651792</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.196037</v>
+        <v>0.5642296666666667</v>
       </c>
       <c r="H26">
-        <v>3.588111</v>
+        <v>1.692689</v>
       </c>
       <c r="I26">
-        <v>0.009216499782437099</v>
+        <v>0.004383361227021382</v>
       </c>
       <c r="J26">
-        <v>0.00922408369738373</v>
+        <v>0.004386654111464609</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N26">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O26">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P26">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q26">
-        <v>378.2979047900069</v>
+        <v>69.50653839653012</v>
       </c>
       <c r="R26">
-        <v>3404.681143110063</v>
+        <v>625.5588455687711</v>
       </c>
       <c r="S26">
-        <v>0.004674863555254659</v>
+        <v>0.001145161765814334</v>
       </c>
       <c r="T26">
-        <v>0.004855548774062571</v>
+        <v>0.001216938603437679</v>
       </c>
     </row>
   </sheetData>
